--- a/フィッティング.xlsx
+++ b/フィッティング.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\KM-01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECC0C22A-814C-4E21-953F-C5B5221D4791}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5257BF-E11C-4A44-A971-DE6129063693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10560" yWindow="2610" windowWidth="21600" windowHeight="12735" xr2:uid="{653F4A6A-83C8-4F7F-84E3-66F7F3A0232A}"/>
+    <workbookView xWindow="975" yWindow="2820" windowWidth="21600" windowHeight="12735" xr2:uid="{653F4A6A-83C8-4F7F-84E3-66F7F3A0232A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -130,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="189" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -186,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -642,15 +637,15 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f>COS(O6)</f>
+        <f t="shared" ref="D6:D16" si="1">COS(O6)</f>
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <f>SIN(O6)</f>
+        <f t="shared" ref="E6:E16" si="2">SIN(O6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>($G$2*D6^3+$G$3*D6^2+$G$4*D6+$I$2*E6^3+$I$3*E6^2+$I$4*E6+$G$5)</f>
+        <f t="shared" ref="J6:J16" si="3">($G$2*D6^3+$G$3*D6^2+$G$4*D6+$I$2*E6^3+$I$3*E6^2+$I$4*E6+$G$5)</f>
         <v>114.87474433081817</v>
       </c>
       <c r="L6" s="1">
@@ -682,27 +677,27 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <f>COS(O7)</f>
+        <f t="shared" si="1"/>
         <v>0.95105651629515353</v>
       </c>
       <c r="E7" s="1">
-        <f>SIN(O7)</f>
+        <f t="shared" si="2"/>
         <v>0.3090169943749474</v>
       </c>
       <c r="J7" s="1">
-        <f>($G$2*D7^3+$G$3*D7^2+$G$4*D7+$I$2*E7^3+$I$3*E7^2+$I$4*E7+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>131.48997390386504</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L16" si="1">((J7-M7)^2)</f>
+        <f t="shared" ref="L7:L16" si="4">((J7-M7)^2)</f>
         <v>106.29663810298422</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" ref="M7:M16" si="2">S7</f>
+        <f t="shared" ref="M7:M16" si="5">S7</f>
         <v>141.80000000000001</v>
       </c>
       <c r="O7" s="1">
-        <f>(PI()/10*(A7))</f>
+        <f t="shared" ref="O7:O16" si="6">(PI()/10*(A7))</f>
         <v>0.31415926535897931</v>
       </c>
       <c r="Q7" s="1">
@@ -720,27 +715,27 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <f>COS(O8)</f>
+        <f t="shared" si="1"/>
         <v>0.80901699437494745</v>
       </c>
       <c r="E8" s="1">
-        <f>SIN(O8)</f>
+        <f t="shared" si="2"/>
         <v>0.58778525229247314</v>
       </c>
       <c r="J8" s="1">
-        <f>($G$2*D8^3+$G$3*D8^2+$G$4*D8+$I$2*E8^3+$I$3*E8^2+$I$4*E8+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>173.35999226293058</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52.417712032825051</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>180.6</v>
       </c>
       <c r="O8" s="1">
-        <f>(PI()/10*(A8))</f>
+        <f t="shared" si="6"/>
         <v>0.62831853071795862</v>
       </c>
       <c r="Q8" s="1">
@@ -758,27 +753,27 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <f>COS(O9)</f>
+        <f t="shared" si="1"/>
         <v>0.58778525229247314</v>
       </c>
       <c r="E9" s="1">
-        <f>SIN(O9)</f>
+        <f t="shared" si="2"/>
         <v>0.80901699437494745</v>
       </c>
       <c r="J9" s="1">
-        <f>($G$2*D9^3+$G$3*D9^2+$G$4*D9+$I$2*E9^3+$I$3*E9^2+$I$4*E9+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>222.57304105496536</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.068189536495639</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>219.4</v>
       </c>
       <c r="O9" s="1">
-        <f>(PI()/10*(A9))</f>
+        <f t="shared" si="6"/>
         <v>0.94247779607693793</v>
       </c>
       <c r="Q9" s="1">
@@ -796,27 +791,27 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <f>COS(O10)</f>
+        <f t="shared" si="1"/>
         <v>0.30901699437494745</v>
       </c>
       <c r="E10" s="1">
-        <f>SIN(O10)</f>
+        <f t="shared" si="2"/>
         <v>0.95105651629515353</v>
       </c>
       <c r="J10" s="1">
-        <f>($G$2*D10^3+$G$3*D10^2+$G$4*D10+$I$2*E10^3+$I$3*E10^2+$I$4*E10+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>264.42262049665516</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38.721005845393009</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>258.2</v>
       </c>
       <c r="O10" s="1">
-        <f>(PI()/10*(A10))</f>
+        <f t="shared" si="6"/>
         <v>1.2566370614359172</v>
       </c>
       <c r="Q10" s="1">
@@ -834,27 +829,27 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <f>COS(O11)</f>
+        <f t="shared" si="1"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="E11" s="1">
-        <f>SIN(O11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <f>($G$2*D11^3+$G$3*D11^2+$G$4*D11+$I$2*E11^3+$I$3*E11^2+$I$4*E11+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>297.00000122549011</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5018260082154177E-12</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>297</v>
       </c>
       <c r="O11" s="1">
-        <f>(PI()/10*(A11))</f>
+        <f t="shared" si="6"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="Q11" s="1">
@@ -872,27 +867,27 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <f>COS(O12)</f>
+        <f t="shared" si="1"/>
         <v>-0.30901699437494734</v>
       </c>
       <c r="E12" s="1">
-        <f>SIN(O12)</f>
+        <f t="shared" si="2"/>
         <v>0.95105651629515364</v>
       </c>
       <c r="J12" s="1">
-        <f>($G$2*D12^3+$G$3*D12^2+$G$4*D12+$I$2*E12^3+$I$3*E12^2+$I$4*E12+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>329.57737995854563</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>38.721000180309673</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>335.8</v>
       </c>
       <c r="O12" s="1">
-        <f>(PI()/10*(A12))</f>
+        <f t="shared" si="6"/>
         <v>1.8849555921538759</v>
       </c>
       <c r="Q12" s="1">
@@ -910,27 +905,27 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <f>COS(O13)</f>
+        <f t="shared" si="1"/>
         <v>-0.58778525229247303</v>
       </c>
       <c r="E13" s="1">
-        <f>SIN(O13)</f>
+        <f t="shared" si="2"/>
         <v>0.80901699437494745</v>
       </c>
       <c r="J13" s="1">
-        <f>($G$2*D13^3+$G$3*D13^2+$G$4*D13+$I$2*E13^3+$I$3*E13^2+$I$4*E13+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>371.42695653142414</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>10.068204853472075</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>374.6</v>
       </c>
       <c r="O13" s="1">
-        <f>(PI()/10*(A13))</f>
+        <f t="shared" si="6"/>
         <v>2.1991148575128552</v>
       </c>
       <c r="Q13" s="1">
@@ -948,27 +943,27 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f>COS(O14)</f>
+        <f t="shared" si="1"/>
         <v>-0.80901699437494734</v>
       </c>
       <c r="E14" s="1">
-        <f>SIN(O14)</f>
+        <f t="shared" si="2"/>
         <v>0.58778525229247325</v>
       </c>
       <c r="J14" s="1">
-        <f>($G$2*D14^3+$G$3*D14^2+$G$4*D14+$I$2*E14^3+$I$3*E14^2+$I$4*E14+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>420.64000669257905</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52.417696908589761</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>413.4</v>
       </c>
       <c r="O14" s="1">
-        <f>(PI()/10*(A14))</f>
+        <f t="shared" si="6"/>
         <v>2.5132741228718345</v>
       </c>
       <c r="Q14" s="1">
@@ -986,27 +981,27 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <f>COS(O15)</f>
+        <f t="shared" si="1"/>
         <v>-0.95105651629515353</v>
       </c>
       <c r="E15" s="1">
-        <f>SIN(O15)</f>
+        <f t="shared" si="2"/>
         <v>0.30901699437494751</v>
       </c>
       <c r="J15" s="1">
-        <f>($G$2*D15^3+$G$3*D15^2+$G$4*D15+$I$2*E15^3+$I$3*E15^2+$I$4*E15+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>462.51002927563997</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>106.29670366455338</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>452.2</v>
       </c>
       <c r="O15" s="1">
-        <f>(PI()/10*(A15))</f>
+        <f t="shared" si="6"/>
         <v>2.8274333882308138</v>
       </c>
       <c r="Q15" s="1">
@@ -1024,27 +1019,27 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <f>COS(O16)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="E16" s="1">
-        <f>SIN(O16)</f>
+        <f t="shared" si="2"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="J16" s="1">
-        <f>($G$2*D16^3+$G$3*D16^2+$G$4*D16+$I$2*E16^3+$I$3*E16^2+$I$4*E16+$G$5)</f>
+        <f t="shared" si="3"/>
         <v>479.12525426633414</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>141.00958623921557</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>491</v>
       </c>
       <c r="O16" s="1">
-        <f>(PI()/10*(A16))</f>
+        <f t="shared" si="6"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="Q16" s="1">
@@ -1146,7 +1141,7 @@
         <v>105.84762599027192</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L4" si="0">((M3-I3)^2)</f>
+        <f t="shared" ref="L3" si="0">((M3-I3)^2)</f>
         <v>10873.657204665804</v>
       </c>
       <c r="M3" s="1">
@@ -1204,14 +1199,14 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <f>COS(O6)</f>
+        <f t="shared" ref="C6:C16" si="1">COS(O6)</f>
         <v>1</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>SIN(O6)</f>
+        <f t="shared" ref="E6:E16" si="2">SIN(O6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="1">
@@ -1241,30 +1236,30 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <f>COS(O7)</f>
+        <f t="shared" si="1"/>
         <v>0.95105651629515353</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <f>SIN(O7)</f>
+        <f t="shared" si="2"/>
         <v>0.3090169943749474</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J16" si="1">($G$2*C7^3+$G$3*C7^2+$G$4*C7+$I$2*E7^3+$I$3*E7^2+$I$4*E7+$G$5)</f>
+        <f t="shared" ref="J7:J16" si="3">($G$2*C7^3+$G$3*C7^2+$G$4*C7+$I$2*E7^3+$I$3*E7^2+$I$4*E7+$G$5)</f>
         <v>474.30028262865596</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7:L16" si="2">((J7-M7)^2)</f>
+        <f t="shared" ref="L7:L16" si="4">((J7-M7)^2)</f>
         <v>86.495256972879886</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" ref="M7:M16" si="3">S7</f>
+        <f t="shared" ref="M7:M16" si="5">S7</f>
         <v>465</v>
       </c>
       <c r="O7" s="1">
-        <f>(PI()/10*(A7))</f>
+        <f t="shared" ref="O7:O16" si="6">(PI()/10*(A7))</f>
         <v>0.31415926535897931</v>
       </c>
       <c r="Q7" s="1">
@@ -1279,30 +1274,30 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <f>COS(O8)</f>
+        <f t="shared" si="1"/>
         <v>0.80901699437494745</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
       <c r="E8" s="1">
-        <f>SIN(O8)</f>
+        <f t="shared" si="2"/>
         <v>0.58778525229247314</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>436.53093420063647</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.653101533043071</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>430</v>
       </c>
       <c r="O8" s="1">
-        <f>(PI()/10*(A8))</f>
+        <f t="shared" si="6"/>
         <v>0.62831853071795862</v>
       </c>
       <c r="Q8" s="1">
@@ -1317,30 +1312,30 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <f>COS(O9)</f>
+        <f t="shared" si="1"/>
         <v>0.58778525229247314</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f>SIN(O9)</f>
+        <f t="shared" si="2"/>
         <v>0.80901699437494745</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>392.13771956236138</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1926493036887127</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>395</v>
       </c>
       <c r="O9" s="1">
-        <f>(PI()/10*(A9))</f>
+        <f t="shared" si="6"/>
         <v>0.94247779607693793</v>
       </c>
       <c r="Q9" s="1">
@@ -1355,30 +1350,30 @@
         <v>4</v>
       </c>
       <c r="C10" s="1">
-        <f>COS(O10)</f>
+        <f t="shared" si="1"/>
         <v>0.30901699437494745</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f>SIN(O10)</f>
+        <f t="shared" si="2"/>
         <v>0.95105651629515353</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>354.38681168063556</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31.507883108649384</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="O10" s="1">
-        <f>(PI()/10*(A10))</f>
+        <f t="shared" si="6"/>
         <v>1.2566370614359172</v>
       </c>
       <c r="Q10" s="1">
@@ -1393,30 +1388,30 @@
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <f>COS(O11)</f>
+        <f t="shared" si="1"/>
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <f>SIN(O11)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>325.00000011201661</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2547720365941834E-14</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="O11" s="1">
-        <f>(PI()/10*(A11))</f>
+        <f t="shared" si="6"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="Q11" s="1">
@@ -1431,30 +1426,30 @@
         <v>6</v>
       </c>
       <c r="C12" s="1">
-        <f>COS(O12)</f>
+        <f t="shared" si="1"/>
         <v>-0.30901699437494734</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f>SIN(O12)</f>
+        <f t="shared" si="2"/>
         <v>0.95105651629515364</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>295.61318844080449</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31.507884471981171</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="O12" s="1">
-        <f>(PI()/10*(A12))</f>
+        <f t="shared" si="6"/>
         <v>1.8849555921538759</v>
       </c>
       <c r="Q12" s="1">
@@ -1469,30 +1464,30 @@
         <v>7</v>
       </c>
       <c r="C13" s="1">
-        <f>COS(O13)</f>
+        <f t="shared" si="1"/>
         <v>-0.58778525229247303</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f>SIN(O13)</f>
+        <f t="shared" si="2"/>
         <v>0.80901699437494745</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>257.8622803077136</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.1926485599250842</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="O13" s="1">
-        <f>(PI()/10*(A13))</f>
+        <f t="shared" si="6"/>
         <v>2.1991148575128552</v>
       </c>
       <c r="Q13" s="1">
@@ -1507,30 +1502,30 @@
         <v>8</v>
       </c>
       <c r="C14" s="1">
-        <f>COS(O14)</f>
+        <f t="shared" si="1"/>
         <v>-0.80901699437494734</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <f>SIN(O14)</f>
+        <f t="shared" si="2"/>
         <v>0.58778525229247325</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>213.46906544768603</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42.653106126608414</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
       <c r="O14" s="1">
-        <f>(PI()/10*(A14))</f>
+        <f t="shared" si="6"/>
         <v>2.5132741228718345</v>
       </c>
       <c r="Q14" s="1">
@@ -1545,30 +1540,30 @@
         <v>9</v>
       </c>
       <c r="C15" s="1">
-        <f>COS(O15)</f>
+        <f t="shared" si="1"/>
         <v>-0.95105651629515353</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f>SIN(O15)</f>
+        <f t="shared" si="2"/>
         <v>0.30901699437494751</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>175.69971712211608</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86.495261608660741</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>185</v>
       </c>
       <c r="O15" s="1">
-        <f>(PI()/10*(A15))</f>
+        <f t="shared" si="6"/>
         <v>2.8274333882308138</v>
       </c>
       <c r="Q15" s="1">
@@ -1583,30 +1578,30 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <f>COS(O16)</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f>SIN(O16)</f>
+        <f t="shared" si="2"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>160.71175473966895</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>114.74168960282016</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="O16" s="1">
-        <f>(PI()/10*(A16))</f>
+        <f t="shared" si="6"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="Q16" s="1">

--- a/フィッティング.xlsx
+++ b/フィッティング.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5257BF-E11C-4A44-A971-DE6129063693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5006872-6204-43A3-B563-D2A0371E8198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="2820" windowWidth="21600" windowHeight="12735" xr2:uid="{653F4A6A-83C8-4F7F-84E3-66F7F3A0232A}"/>
+    <workbookView xWindow="3075" yWindow="4815" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{653F4A6A-83C8-4F7F-84E3-66F7F3A0232A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>x</t>
     <phoneticPr fontId="2"/>
@@ -117,6 +117,34 @@
   </si>
   <si>
     <t>491-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左に傾ける</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右に傾ける</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>usiro</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>mae</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -200,6 +228,968 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1217680200398403"/>
+          <c:y val="8.920325203252033E-2"/>
+          <c:w val="0.81848179401027643"/>
+          <c:h val="0.78332270661289294"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$6:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>227.84130501436667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>261.20022797520926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>345.26400619196443</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>444.07061836745009</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>528.09335355247799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>593.49999995281655</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>658.90664637805708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>742.92938163659642</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>841.73599390181334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>925.79977211183495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>959.15869478290676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$6:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0000_ </c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AD2-4555-AC63-6A7377939E5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="84019311"/>
+        <c:axId val="522576831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84019311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522576831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="522576831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.0000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84019311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2831F7-F94D-45E2-95B8-0460414630CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,20 +1491,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED7DD6D-91E7-4324-8409-A2DB206C7134}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
     <col min="10" max="10" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.125" style="1" customWidth="1"/>
     <col min="13" max="14" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -543,14 +1534,14 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>-84.800352753012845</v>
+        <v>-170.25637836244368</v>
       </c>
       <c r="I2" s="1">
-        <v>4.2603834841156416E-5</v>
+        <v>1.5988638525009508E-5</v>
       </c>
       <c r="L2" s="1">
         <f>((M2-I2)^2)</f>
-        <v>1.8150867431725333E-9</v>
+        <v>2.5563656188341823E-10</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -570,14 +1561,14 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>96.514312084311669</v>
+        <v>195.34763197420708</v>
       </c>
       <c r="I3" s="1">
-        <v>96.514248373599898</v>
+        <v>195.34760441420363</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3" si="0">((M3-I3)^2)</f>
-        <v>9014.2590865639613</v>
+        <v>37549.451352544434</v>
       </c>
       <c r="M3" s="1">
         <f>PI()/2</f>
@@ -598,14 +1589,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>-97.324902214745137</v>
+        <v>-195.40231655030789</v>
       </c>
       <c r="I4" s="1">
-        <v>2.3033790861125497E-5</v>
+        <v>1.2569992000502031E-5</v>
       </c>
       <c r="L4" s="1">
         <f>((M4-I4)^2)</f>
-        <v>9.8694596760436042</v>
+        <v>9.869525421658313</v>
       </c>
       <c r="M4" s="1">
         <f>PI()</f>
@@ -617,7 +1608,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="G5" s="1">
-        <v>200.48568721426449</v>
+        <v>398.15236718230602</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>6</v>
@@ -632,6 +1623,9 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -646,15 +1640,15 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" ref="J6:J16" si="3">($G$2*D6^3+$G$3*D6^2+$G$4*D6+$I$2*E6^3+$I$3*E6^2+$I$4*E6+$G$5)</f>
-        <v>114.87474433081817</v>
+        <v>227.84130424376153</v>
       </c>
       <c r="L6" s="1">
         <f>((J6-M6)^2)</f>
-        <v>141.00955292229838</v>
+        <v>568.40778804360139</v>
       </c>
       <c r="M6" s="1">
         <f>S6</f>
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -663,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>7</v>
@@ -686,15 +1680,15 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>131.48997390386504</v>
+        <v>261.20022878721579</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L16" si="4">((J7-M7)^2)</f>
-        <v>106.29663810298422</v>
+        <v>428.48052826160887</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ref="M7:M16" si="5">S7</f>
-        <v>141.80000000000001</v>
+        <v>281.89999999999998</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ref="O7:O16" si="6">(PI()/10*(A7))</f>
@@ -704,7 +1698,7 @@
         <v>18</v>
       </c>
       <c r="S7" s="1">
-        <v>141.80000000000001</v>
+        <v>281.89999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
@@ -724,15 +1718,15 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>173.35999226293058</v>
+        <v>345.26400639740012</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>52.417712032825051</v>
+        <v>211.29511001482487</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="5"/>
-        <v>180.6</v>
+        <v>359.8</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="6"/>
@@ -742,7 +1736,7 @@
         <v>36</v>
       </c>
       <c r="S8" s="1">
-        <v>180.6</v>
+        <v>359.8</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
@@ -762,15 +1756,15 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>222.57304105496536</v>
+        <v>444.07061810963239</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>10.068189536495639</v>
+        <v>40.584775098776333</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="5"/>
-        <v>219.4</v>
+        <v>437.7</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="6"/>
@@ -780,7 +1774,7 @@
         <v>54</v>
       </c>
       <c r="S9" s="1">
-        <v>219.4</v>
+        <v>437.7</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
@@ -800,15 +1794,15 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>264.42262049665516</v>
+        <v>528.09335352073845</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>38.721005845393009</v>
+        <v>156.08388219414718</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="5"/>
-        <v>258.2</v>
+        <v>515.6</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="6"/>
@@ -818,7 +1812,7 @@
         <v>72</v>
       </c>
       <c r="S10" s="1">
-        <v>258.2</v>
+        <v>515.6</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
@@ -838,15 +1832,15 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>297.00000122549011</v>
+        <v>593.50000015514024</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="4"/>
-        <v>1.5018260082154177E-12</v>
+        <v>2.4068494683590508E-14</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="5"/>
-        <v>297</v>
+        <v>593.5</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="6"/>
@@ -856,7 +1850,7 @@
         <v>90</v>
       </c>
       <c r="S11" s="1">
-        <v>297</v>
+        <v>593.5</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
@@ -876,15 +1870,15 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>329.57737995854563</v>
+        <v>658.90664635341</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>38.721000180309673</v>
+        <v>156.08388533876317</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>335.8</v>
+        <v>671.4</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="6"/>
@@ -894,7 +1888,7 @@
         <v>108</v>
       </c>
       <c r="S12" s="1">
-        <v>335.8</v>
+        <v>671.4</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
@@ -914,15 +1908,15 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>371.42695653142414</v>
+        <v>742.92938139779517</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>10.068204853472075</v>
+        <v>40.584781374757661</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>374.6</v>
+        <v>749.3</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="6"/>
@@ -932,7 +1926,7 @@
         <v>126</v>
       </c>
       <c r="S13" s="1">
-        <v>374.6</v>
+        <v>749.3</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.4">
@@ -952,15 +1946,15 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>420.64000669257905</v>
+        <v>841.7359941428233</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>52.417696908589761</v>
+        <v>211.295125720192</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>413.4</v>
+        <v>827.2</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="6"/>
@@ -970,7 +1964,7 @@
         <v>144</v>
       </c>
       <c r="S14" s="1">
-        <v>413.4</v>
+        <v>827.2</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
@@ -990,15 +1984,15 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>462.51002927563997</v>
+        <v>925.79977297460164</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="4"/>
-        <v>106.29670366455338</v>
+        <v>428.48060120004737</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>452.2</v>
+        <v>905.1</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="6"/>
@@ -1008,13 +2002,16 @@
         <v>162</v>
       </c>
       <c r="S15" s="1">
-        <v>452.2</v>
+        <v>905.1</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>10</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
@@ -1028,15 +2025,15 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>479.12525426633414</v>
+        <v>959.15869406926458</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="4"/>
-        <v>141.00958623921557</v>
+        <v>568.40786848291975</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="5"/>
-        <v>491</v>
+        <v>983</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="6"/>
@@ -1046,13 +2043,13 @@
         <v>180</v>
       </c>
       <c r="S16" s="1">
-        <v>491</v>
+        <v>983</v>
       </c>
     </row>
     <row r="18" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L18" s="1">
         <f>SUM(L6:L16)</f>
-        <v>697.02629028613831</v>
+        <v>2809.7043457296386</v>
       </c>
     </row>
   </sheetData>
@@ -1066,13 +2063,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2340A11-8899-4351-9F3C-6EC081DB588C}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6:S16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="7" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="1"/>
     <col min="10" max="10" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.25" style="1" bestFit="1" customWidth="1"/>
@@ -1108,14 +2108,14 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>76.495163599055829</v>
+        <v>-170.25637834364304</v>
       </c>
       <c r="I2" s="1">
-        <v>-4.8863619484233919E-7</v>
+        <v>4.2937392602526714E-7</v>
       </c>
       <c r="L2" s="1">
         <f>((M2-I2)^2)</f>
-        <v>2.3876533091000048E-13</v>
+        <v>1.8436196835035159E-13</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -1135,14 +2135,14 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>105.84762378688461</v>
+        <v>195.34762541229429</v>
       </c>
       <c r="I3" s="1">
-        <v>105.84762599027192</v>
+        <v>195.34762425010712</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3" si="0">((M3-I3)^2)</f>
-        <v>10873.657204665804</v>
+        <v>37549.459040020956</v>
       </c>
       <c r="M3" s="1">
         <f>PI()/2</f>
@@ -1163,14 +2163,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>87.793081914063507</v>
+        <v>-195.402316540627</v>
       </c>
       <c r="I4" s="1">
-        <v>-1.8555228060364862E-6</v>
+        <v>7.8699314977299451E-7</v>
       </c>
       <c r="L4" s="1">
         <f>((M4-I4)^2)</f>
-        <v>9.8696160596864324</v>
+        <v>9.8695994562661813</v>
       </c>
       <c r="M4" s="1">
         <f>PI()</f>
@@ -1182,7 +2182,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="G5" s="1">
-        <v>219.15237646590367</v>
+        <v>398.15237448634241</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>6</v>
@@ -1197,6 +2197,9 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C16" si="1">COS(O6)</f>
@@ -1211,15 +2214,15 @@
       </c>
       <c r="J6" s="1">
         <f>($G$2*C6^3+$G$3*C6^2+$G$4*C6+$I$2*E6^3+$I$3*E6^2+$I$4*E6+$G$5)</f>
-        <v>489.28824576590762</v>
+        <v>227.84130501436667</v>
       </c>
       <c r="L6" s="1">
         <f>((J6-M6)^2)</f>
-        <v>114.74167877159607</v>
+        <v>568.40782478806523</v>
       </c>
       <c r="M6" s="1">
         <f>S6</f>
-        <v>500</v>
+        <v>204</v>
       </c>
       <c r="O6" s="1">
         <v>0</v>
@@ -1228,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>500</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
@@ -1248,15 +2251,15 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ref="J7:J16" si="3">($G$2*C7^3+$G$3*C7^2+$G$4*C7+$I$2*E7^3+$I$3*E7^2+$I$4*E7+$G$5)</f>
-        <v>474.30028262865596</v>
+        <v>261.20022797520926</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" ref="L7:L16" si="4">((J7-M7)^2)</f>
-        <v>86.495256972879886</v>
+        <v>428.48056187830844</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" ref="M7:M16" si="5">S7</f>
-        <v>465</v>
+        <v>281.89999999999998</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" ref="O7:O16" si="6">(PI()/10*(A7))</f>
@@ -1266,7 +2269,7 @@
         <v>18</v>
       </c>
       <c r="S7" s="1">
-        <v>465</v>
+        <v>281.89999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
@@ -1286,15 +2289,15 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>436.53093420063647</v>
+        <v>345.26400619196443</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>42.653101533043071</v>
+        <v>211.29511598724886</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="5"/>
-        <v>430</v>
+        <v>359.8</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="6"/>
@@ -1304,7 +2307,7 @@
         <v>36</v>
       </c>
       <c r="S8" s="1">
-        <v>430</v>
+        <v>359.8</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
@@ -1324,15 +2327,15 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>392.13771956236138</v>
+        <v>444.07061836745009</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>8.1926493036887127</v>
+        <v>40.584778383692658</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="5"/>
-        <v>395</v>
+        <v>437.7</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="6"/>
@@ -1342,7 +2345,7 @@
         <v>54</v>
       </c>
       <c r="S9" s="1">
-        <v>395</v>
+        <v>437.7</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
@@ -1362,15 +2365,15 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>354.38681168063556</v>
+        <v>528.09335355247799</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>31.507883108649384</v>
+        <v>156.08388298721391</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>515.6</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="6"/>
@@ -1380,7 +2383,7 @@
         <v>72</v>
       </c>
       <c r="S10" s="1">
-        <v>360</v>
+        <v>515.6</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
@@ -1400,15 +2403,15 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>325.00000011201661</v>
+        <v>593.49999995281655</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="4"/>
-        <v>1.2547720365941834E-14</v>
+        <v>2.2262777896665674E-15</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="5"/>
-        <v>325</v>
+        <v>593.5</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" si="6"/>
@@ -1418,7 +2421,7 @@
         <v>90</v>
       </c>
       <c r="S11" s="1">
-        <v>325</v>
+        <v>593.5</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
@@ -1438,15 +2441,15 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>295.61318844080449</v>
+        <v>658.90664637805708</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>31.507884471981171</v>
+        <v>156.08388472291381</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="5"/>
-        <v>290</v>
+        <v>671.4</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="6"/>
@@ -1456,7 +2459,7 @@
         <v>108</v>
       </c>
       <c r="S12" s="1">
-        <v>290</v>
+        <v>671.4</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
@@ -1476,15 +2479,15 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>257.8622803077136</v>
+        <v>742.92938163659642</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>8.1926485599250842</v>
+        <v>40.584778332134363</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="5"/>
-        <v>255</v>
+        <v>749.3</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="6"/>
@@ -1494,7 +2497,7 @@
         <v>126</v>
       </c>
       <c r="S13" s="1">
-        <v>255</v>
+        <v>749.3</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
@@ -1514,15 +2517,15 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>213.46906544768603</v>
+        <v>841.73599390181334</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>42.653106126608414</v>
+        <v>211.29511871355342</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="5"/>
-        <v>220</v>
+        <v>827.2</v>
       </c>
       <c r="O14" s="1">
         <f t="shared" si="6"/>
@@ -1532,7 +2535,7 @@
         <v>144</v>
       </c>
       <c r="S14" s="1">
-        <v>220</v>
+        <v>827.2</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
@@ -1552,15 +2555,15 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>175.69971712211608</v>
+        <v>925.79977211183495</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="4"/>
-        <v>86.495261608660741</v>
+        <v>428.48056548189919</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>905.1</v>
       </c>
       <c r="O15" s="1">
         <f t="shared" si="6"/>
@@ -1570,13 +2573,16 @@
         <v>162</v>
       </c>
       <c r="S15" s="1">
-        <v>185</v>
+        <v>905.1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>10</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
         <v>-1</v>
@@ -1590,15 +2596,15 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" si="3"/>
-        <v>160.71175473966895</v>
+        <v>959.15869478290676</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="4"/>
-        <v>114.74168960282016</v>
+        <v>568.40783445459715</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>983</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="6"/>
@@ -1608,18 +2614,19 @@
         <v>180</v>
       </c>
       <c r="S16" s="1">
-        <v>150</v>
+        <v>983</v>
       </c>
     </row>
     <row r="18" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L18" s="1">
         <f>SUM(L6:L16)</f>
-        <v>567.18116005985269</v>
+        <v>2809.7043457296268</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>